--- a/2.xlsx
+++ b/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\we-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9E12D3-699F-4B0E-A7F4-33537AB55DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F45E6F-4346-418D-BE59-E9914570DCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>倒是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,37 +353,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I1">
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G14">
         <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O16">
+        <v>54545</v>
       </c>
     </row>
     <row r="17" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E17">
         <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="5:14" x14ac:dyDescent="0.3">

--- a/2.xlsx
+++ b/2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\we-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9E12D3-699F-4B0E-A7F4-33537AB55DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FF77E0-F118-4D63-A8A3-A51BEBA989E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="3430" windowWidth="28930" windowHeight="17450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -347,34 +347,55 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I1">
         <v>323</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G14">
         <v>2</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E17">
         <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>555</v>
       </c>
     </row>
     <row r="21" spans="5:14" x14ac:dyDescent="0.3">

--- a/2.xlsx
+++ b/2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\we-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9E12D3-699F-4B0E-A7F4-33537AB55DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97725996-2763-4D47-A8CB-7591E59FE0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="3430" windowWidth="28930" windowHeight="17450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,19 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>顶顶顶顶顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,7 +360,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -362,6 +375,11 @@
         <v>323</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>232</v>
@@ -372,9 +390,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="17" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E17">
-        <v>2</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="5:14" x14ac:dyDescent="0.3">
